--- a/FFE-AddIn/_Doc/Attachments/AVQ Examples.xlsx
+++ b/FFE-AddIn/_Doc/Attachments/AVQ Examples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82C30F-B57A-489A-8701-10F132F5A118}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="406" documentId="6_{078F3662-E7CF-4650-9E5B-B5E26D6FC978}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8D0AE2CD-07E2-424D-B64D-D17755494EF7}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{314593F2-E385-4A9A-9CBA-FA85C79DDF42}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1338,13 +1338,13 @@
       </c>
       <c r="D6" s="3">
         <f ca="1">TODAY()-3</f>
-        <v>43967</v>
+        <v>43875</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="1" t="e">
+      <c r="G6" s="1">
         <f ca="1">_xll.QAVD(A6,B6,,D6)</f>
-        <v>#NAME?</v>
+        <v>23149516</v>
       </c>
       <c r="H6" s="4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(TIME_SERIES_DAILY[[#This Row],[Stock Data]])</f>
@@ -1520,13 +1520,13 @@
       </c>
       <c r="D6" s="3">
         <f ca="1">TODAY()-3</f>
-        <v>43967</v>
+        <v>43875</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="1" t="e">
+      <c r="G6" s="1">
         <f ca="1">_xll.QAVDA(A6,B6,,D6)</f>
-        <v>#NAME?</v>
+        <v>23149516</v>
       </c>
       <c r="H6" s="4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(TIME_SERIES_DAILY_ADJUSTED[[#This Row],[Stock Data]])</f>
@@ -2050,12 +2050,12 @@
       </c>
       <c r="D6" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)</f>
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="1" t="e">
+      <c r="F6" s="1">
         <f ca="1">_xll.QAVM(A6,B6,,D6)</f>
-        <v>#NAME?</v>
+        <v>555989763</v>
       </c>
       <c r="G6" s="4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(TIME_SERIES_MONTHLY[[#This Row],[Stock Data]])</f>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="D6" s="3">
         <f ca="1">EOMONTH(TODAY(),-1)</f>
-        <v>43951</v>
+        <v>43861</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="1" t="e">
+      <c r="F6" s="1">
         <f ca="1">_xll.QAVMA(A6,B6,,D6)</f>
-        <v>#NAME?</v>
+        <v>555989763</v>
       </c>
       <c r="G6" s="4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(TIME_SERIES_MONTHLY_ADJUSTED[[#This Row],[Stock Data]])</f>
